--- a/04数据分析/data/lipsticks.xlsx
+++ b/04数据分析/data/lipsticks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7110"/>
+    <workbookView windowWidth="28800" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="lipsticks" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,28 @@
     <t>品牌</t>
   </si>
   <si>
-    <t xml:space="preserve"> 折扣价</t>
+    <t>折扣价</t>
   </si>
   <si>
-    <t xml:space="preserve"> 原价</t>
+    <t>原价</t>
   </si>
   <si>
-    <t xml:space="preserve"> 是否自营</t>
+    <t>是否自营</t>
   </si>
   <si>
-    <t xml:space="preserve"> 评论数</t>
+    <t>评论数</t>
   </si>
   <si>
-    <t xml:space="preserve"> 国家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>ESTĒE LAUDER 雅诗兰黛</t>
   </si>
   <si>
-    <t xml:space="preserve"> 自营</t>
+    <t>自营</t>
   </si>
   <si>
-    <t xml:space="preserve"> 美国</t>
+    <t>美国</t>
   </si>
   <si>
     <t>MAC 魅可</t>
@@ -49,10 +49,10 @@
     <t>MARIE DALGAR 玛丽黛佳</t>
   </si>
   <si>
-    <t xml:space="preserve"> 非自营</t>
+    <t>非自营</t>
   </si>
   <si>
-    <t xml:space="preserve"> 中国</t>
+    <t>中国</t>
   </si>
   <si>
     <t>wet n wild</t>
@@ -61,7 +61,7 @@
     <t>GUERLAIN 娇兰</t>
   </si>
   <si>
-    <t xml:space="preserve"> 法国</t>
+    <t>法国</t>
   </si>
   <si>
     <t>TOM FORD 汤姆·福特</t>
@@ -70,7 +70,7 @@
     <t>Mamonde 梦妆</t>
   </si>
   <si>
-    <t xml:space="preserve"> 韩国</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>Maybelline 美宝莲</t>
@@ -79,19 +79,19 @@
     <t>Manuka Bee 小蜜坊</t>
   </si>
   <si>
-    <t xml:space="preserve"> 新西兰</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>KIKO MILANO</t>
   </si>
   <si>
-    <t xml:space="preserve"> 意大利</t>
+    <t>意大利</t>
   </si>
   <si>
     <t>SHISEIDO 资生堂</t>
   </si>
   <si>
-    <t xml:space="preserve"> 日本</t>
+    <t>日本</t>
   </si>
   <si>
     <t>Dior 迪奥</t>
@@ -141,29 +141,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +162,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,23 +199,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,6 +232,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -244,41 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,13 +293,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,25 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +335,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,49 +365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,19 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +484,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,80 +584,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -592,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="5"/>
